--- a/datos_dropcontrol/2025-08-05.xlsx
+++ b/datos_dropcontrol/2025-08-05.xlsx
@@ -1,96 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\mi-app-humedad\datos_dropcontrol\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30989301-6C4D-4F5E-A77A-DC8B06817B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="10125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Sem</t>
-  </si>
-  <si>
-    <t>Temperatura (ºC)</t>
-  </si>
-  <si>
-    <t>Humedad Relativa (%)</t>
-  </si>
-  <si>
-    <t>Radiación Solar (W/m²)</t>
-  </si>
-  <si>
-    <t>Velocidad de Viento Promedio (km/h)</t>
-  </si>
-  <si>
-    <t>Dirección de Viento Predominante</t>
-  </si>
-  <si>
-    <t>Precipitación (mm)</t>
-  </si>
-  <si>
-    <t>Hora de Ejecución</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>NNE</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>NNO</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,44 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,309 +424,393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Año</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Temperatura (ºC)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Humedad Relativa (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Radiación Solar (W/m²)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Velocidad de Viento Promedio (km/h)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Dirección de Viento Predominante</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Precipitación (mm)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Hora de Ejecución</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>45874</v>
       </c>
-      <c r="B2">
-        <v>2025</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C2" t="n">
         <v>32</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>13.63</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>91.09</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.83</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>45874.041666666657</v>
-      </c>
-      <c r="B3">
-        <v>2025</v>
-      </c>
-      <c r="C3">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45874.04166666666</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C3" t="n">
         <v>32</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>13.38</v>
       </c>
-      <c r="E3">
-        <v>91.46</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="E3" t="n">
+        <v>91.45999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.79</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>45874.083333333343</v>
-      </c>
-      <c r="B4">
-        <v>2025</v>
-      </c>
-      <c r="C4">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45874.08333333334</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C4" t="n">
         <v>32</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>13.25</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>91.84</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.31</v>
       </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45874.125</v>
       </c>
-      <c r="B5">
-        <v>2025</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C5" t="n">
         <v>32</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>12.97</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>92.02</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.49</v>
       </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>45874.166666666657</v>
-      </c>
-      <c r="B6">
-        <v>2025</v>
-      </c>
-      <c r="C6">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NNE</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45874.16666666666</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C6" t="n">
         <v>32</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>12.89</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>92.33</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.72</v>
       </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>45874.208333333343</v>
-      </c>
-      <c r="B7">
-        <v>2025</v>
-      </c>
-      <c r="C7">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45874.20833333334</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C7" t="n">
         <v>32</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>12.9</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>92.63</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>3.92</v>
       </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45874.25</v>
       </c>
-      <c r="B8">
-        <v>2025</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C8" t="n">
         <v>32</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>13.04</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>92.72</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.91</v>
       </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>45874.291666666657</v>
-      </c>
-      <c r="B9">
-        <v>2025</v>
-      </c>
-      <c r="C9">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45874.29166666666</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C9" t="n">
         <v>32</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>13.14</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>92.84</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>27.25</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>1.26</v>
       </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>45874.333333333343</v>
-      </c>
-      <c r="B10">
-        <v>2025</v>
-      </c>
-      <c r="C10">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NNO</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45874.33333333334</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C10" t="n">
         <v>32</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>13.43</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>93</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>62.11</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>1.23</v>
       </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45874.37516971208</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="E11" t="n">
+        <v>92.93000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>93.16</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ENE</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>09:00:14</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/datos_dropcontrol/2025-08-05.xlsx
+++ b/datos_dropcontrol/2025-08-05.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,7 +779,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45874.37516971208</v>
+        <v>45874.37516971065</v>
       </c>
       <c r="B11" t="n">
         <v>2025</v>
@@ -810,6 +810,42 @@
       <c r="J11" t="inlineStr">
         <is>
           <t>09:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45874.41689232497</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C12" t="n">
+        <v>19</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="E12" t="n">
+        <v>92.93000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>186.33</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>10:00:19</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-05.xlsx
+++ b/datos_dropcontrol/2025-08-05.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,7 +815,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45874.41689232497</v>
+        <v>45874.41689232639</v>
       </c>
       <c r="B12" t="n">
         <v>2025</v>
@@ -846,6 +846,78 @@
       <c r="J12" t="inlineStr">
         <is>
           <t>10:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45874.43292002315</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C13" t="n">
+        <v>19</v>
+      </c>
+      <c r="D13" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="E13" t="n">
+        <v>89.66</v>
+      </c>
+      <c r="F13" t="n">
+        <v>499.22</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>10:23:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45874.44107065022</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C14" t="n">
+        <v>19</v>
+      </c>
+      <c r="D14" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="E14" t="n">
+        <v>85.18000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>335.74</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>10:35:08</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-05.xlsx
+++ b/datos_dropcontrol/2025-08-05.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,7 +851,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45874.43292002315</v>
+        <v>45874.45852196016</v>
       </c>
       <c r="B13" t="n">
         <v>2025</v>
@@ -860,16 +860,16 @@
         <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>16.17</v>
+        <v>17.11</v>
       </c>
       <c r="E13" t="n">
-        <v>89.66</v>
+        <v>84.06</v>
       </c>
       <c r="F13" t="n">
-        <v>499.22</v>
+        <v>316.41</v>
       </c>
       <c r="G13" t="n">
-        <v>9.34</v>
+        <v>10.9</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -881,43 +881,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>10:23:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45874.44107065022</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C14" t="n">
-        <v>19</v>
-      </c>
-      <c r="D14" t="n">
-        <v>17.22</v>
-      </c>
-      <c r="E14" t="n">
-        <v>85.18000000000001</v>
-      </c>
-      <c r="F14" t="n">
-        <v>335.74</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ESE</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>10:35:08</t>
+          <t>11:00:16</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-05.xlsx
+++ b/datos_dropcontrol/2025-08-05.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,7 +851,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45874.45852196016</v>
+        <v>45874.45852195602</v>
       </c>
       <c r="B13" t="n">
         <v>2025</v>
@@ -882,6 +882,42 @@
       <c r="J13" t="inlineStr">
         <is>
           <t>11:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45874.50051116817</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C14" t="n">
+        <v>19</v>
+      </c>
+      <c r="D14" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="E14" t="n">
+        <v>80.14</v>
+      </c>
+      <c r="F14" t="n">
+        <v>652.15</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>12:00:44</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-05.xlsx
+++ b/datos_dropcontrol/2025-08-05.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45874.50051116817</v>
+        <v>45874.50051116898</v>
       </c>
       <c r="B14" t="n">
         <v>2025</v>
@@ -918,6 +918,42 @@
       <c r="J14" t="inlineStr">
         <is>
           <t>12:00:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45874.50230081836</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C15" t="n">
+        <v>19</v>
+      </c>
+      <c r="D15" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="E15" t="n">
+        <v>78.45999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>634.5700000000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>12:03:18</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-05.xlsx
+++ b/datos_dropcontrol/2025-08-05.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -923,7 +923,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45874.50230081836</v>
+        <v>45874.50230082176</v>
       </c>
       <c r="B15" t="n">
         <v>2025</v>
@@ -954,6 +954,42 @@
       <c r="J15" t="inlineStr">
         <is>
           <t>12:03:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45874.54183811676</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19</v>
+      </c>
+      <c r="D16" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="E16" t="n">
+        <v>76.77</v>
+      </c>
+      <c r="F16" t="n">
+        <v>578.3200000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>13:00:14</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-05.xlsx
+++ b/datos_dropcontrol/2025-08-05.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,7 +959,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45874.54183811676</v>
+        <v>45874.54183811343</v>
       </c>
       <c r="B16" t="n">
         <v>2025</v>
@@ -990,6 +990,42 @@
       <c r="J16" t="inlineStr">
         <is>
           <t>13:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45874.5836159344</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C17" t="n">
+        <v>19</v>
+      </c>
+      <c r="D17" t="n">
+        <v>20.56</v>
+      </c>
+      <c r="E17" t="n">
+        <v>74.25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>82.62</v>
+      </c>
+      <c r="G17" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>14:00:24</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-05.xlsx
+++ b/datos_dropcontrol/2025-08-05.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,7 +995,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45874.5836159344</v>
+        <v>45874.5836159375</v>
       </c>
       <c r="B17" t="n">
         <v>2025</v>
@@ -1026,6 +1026,42 @@
       <c r="J17" t="inlineStr">
         <is>
           <t>14:00:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45874.60601676657</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C18" t="n">
+        <v>19</v>
+      </c>
+      <c r="D18" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="E18" t="n">
+        <v>73.04000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>451.76</v>
+      </c>
+      <c r="G18" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>14:32:39</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-05.xlsx
+++ b/datos_dropcontrol/2025-08-05.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -923,7 +923,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45874.50230082176</v>
+        <v>45874.54183811343</v>
       </c>
       <c r="B15" t="n">
         <v>2025</v>
@@ -932,16 +932,16 @@
         <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>18.89</v>
+        <v>19.78</v>
       </c>
       <c r="E15" t="n">
-        <v>78.45999999999999</v>
+        <v>76.77</v>
       </c>
       <c r="F15" t="n">
-        <v>634.5700000000001</v>
+        <v>578.3200000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>11.44</v>
+        <v>14.38</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -953,13 +953,13 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>12:03:18</t>
+          <t>13:00:14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45874.54183811343</v>
+        <v>45874.5836159375</v>
       </c>
       <c r="B16" t="n">
         <v>2025</v>
@@ -968,16 +968,16 @@
         <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>19.78</v>
+        <v>20.56</v>
       </c>
       <c r="E16" t="n">
-        <v>76.77</v>
+        <v>74.25</v>
       </c>
       <c r="F16" t="n">
-        <v>578.3200000000001</v>
+        <v>82.62</v>
       </c>
       <c r="G16" t="n">
-        <v>14.38</v>
+        <v>13.87</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -989,13 +989,13 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>13:00:14</t>
+          <t>14:00:24</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45874.5836159375</v>
+        <v>45874.66686496891</v>
       </c>
       <c r="B17" t="n">
         <v>2025</v>
@@ -1004,16 +1004,16 @@
         <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>20.56</v>
+        <v>21.5</v>
       </c>
       <c r="E17" t="n">
-        <v>74.25</v>
+        <v>71.73</v>
       </c>
       <c r="F17" t="n">
-        <v>82.62</v>
+        <v>298.83</v>
       </c>
       <c r="G17" t="n">
-        <v>13.87</v>
+        <v>11.38</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1025,43 +1025,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>14:00:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45874.60601676657</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C18" t="n">
-        <v>19</v>
-      </c>
-      <c r="D18" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="E18" t="n">
-        <v>73.04000000000001</v>
-      </c>
-      <c r="F18" t="n">
-        <v>451.76</v>
-      </c>
-      <c r="G18" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ESE</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>14:32:39</t>
+          <t>16:00:17</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-05.xlsx
+++ b/datos_dropcontrol/2025-08-05.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,7 +995,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45874.66686496891</v>
+        <v>45874.66686496528</v>
       </c>
       <c r="B17" t="n">
         <v>2025</v>
@@ -1026,6 +1026,42 @@
       <c r="J17" t="inlineStr">
         <is>
           <t>16:00:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45874.70852650376</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C18" t="n">
+        <v>19</v>
+      </c>
+      <c r="D18" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="E18" t="n">
+        <v>72.84999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>156.45</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>17:00:16</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-05.xlsx
+++ b/datos_dropcontrol/2025-08-05.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45874.70852650376</v>
+        <v>45874.70852650463</v>
       </c>
       <c r="B18" t="n">
         <v>2025</v>
@@ -1062,6 +1062,42 @@
       <c r="J18" t="inlineStr">
         <is>
           <t>17:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45874.75028924231</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C19" t="n">
+        <v>19</v>
+      </c>
+      <c r="D19" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>77.62</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>18:00:24</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-05.xlsx
+++ b/datos_dropcontrol/2025-08-05.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45874.75028924231</v>
+        <v>45874.75028924768</v>
       </c>
       <c r="B19" t="n">
         <v>2025</v>
@@ -1098,6 +1098,42 @@
       <c r="J19" t="inlineStr">
         <is>
           <t>18:00:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45874.79190705</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="E20" t="n">
+        <v>83.69</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>19:00:20</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-05.xlsx
+++ b/datos_dropcontrol/2025-08-05.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45874.79190705</v>
+        <v>45874.79190704861</v>
       </c>
       <c r="B20" t="n">
         <v>2025</v>
@@ -1134,6 +1134,42 @@
       <c r="J20" t="inlineStr">
         <is>
           <t>19:00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45874.83353430877</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="E21" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>20:00:17</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-05.xlsx
+++ b/datos_dropcontrol/2025-08-05.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45874.83353430877</v>
+        <v>45874.83353430556</v>
       </c>
       <c r="B21" t="n">
         <v>2025</v>
@@ -1170,6 +1170,42 @@
       <c r="J21" t="inlineStr">
         <is>
           <t>20:00:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45874.87520286583</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C22" t="n">
+        <v>19</v>
+      </c>
+      <c r="D22" t="n">
+        <v>15</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86.68000000000001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>21:00:17</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-05.xlsx
+++ b/datos_dropcontrol/2025-08-05.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45874.87520286583</v>
+        <v>45874.87520287037</v>
       </c>
       <c r="B22" t="n">
         <v>2025</v>
@@ -1206,6 +1206,42 @@
       <c r="J22" t="inlineStr">
         <is>
           <t>21:00:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45874.91690624816</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C23" t="n">
+        <v>19</v>
+      </c>
+      <c r="D23" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="E23" t="n">
+        <v>90.22</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>22:00:20</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-05.xlsx
+++ b/datos_dropcontrol/2025-08-05.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45874.91690624816</v>
+        <v>45874.91690625</v>
       </c>
       <c r="B23" t="n">
         <v>2025</v>
@@ -1242,6 +1242,42 @@
       <c r="J23" t="inlineStr">
         <is>
           <t>22:00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45874.95854735681</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C24" t="n">
+        <v>19</v>
+      </c>
+      <c r="D24" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="E24" t="n">
+        <v>91.44</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>23:00:18</t>
         </is>
       </c>
     </row>
